--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9930213585536873</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.010501375714796</v>
+      </c>
+      <c r="D16">
+        <v>0.9862014279361111</v>
+      </c>
+      <c r="E16">
+        <v>0.9964998363637791</v>
+      </c>
+      <c r="F16">
+        <v>0.9879085223676277</v>
+      </c>
+      <c r="G16">
+        <v>1.010501375714796</v>
+      </c>
+      <c r="H16">
+        <v>0.9862014279361111</v>
+      </c>
+      <c r="I16">
+        <v>0.995867728876934</v>
+      </c>
+      <c r="J16">
+        <v>0.9923383171122281</v>
+      </c>
+      <c r="K16">
+        <v>0.9982352941176471</v>
+      </c>
+      <c r="L16">
+        <v>0.9805882352941176</v>
+      </c>
+      <c r="M16">
+        <v>1.010501375714796</v>
+      </c>
+      <c r="N16">
+        <v>0.9913506321499451</v>
+      </c>
+      <c r="O16">
+        <v>0.9952777905955785</v>
+      </c>
+      <c r="P16">
+        <v>0.9935175922229051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.010501375714796</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000415999999999</v>
+        <v>1.010501375714796</v>
       </c>
       <c r="D10">
-        <v>0.9612399999999994</v>
+        <v>0.9862014279361111</v>
       </c>
       <c r="E10">
-        <v>1.011467999999999</v>
+        <v>0.9964998363637791</v>
       </c>
       <c r="F10">
-        <v>0.9801960000000012</v>
+        <v>0.9879085223676277</v>
       </c>
       <c r="G10">
-        <v>1.000415999999999</v>
+        <v>1.010501375714796</v>
       </c>
       <c r="H10">
-        <v>0.9612399999999994</v>
+        <v>0.9862014279361111</v>
       </c>
       <c r="I10">
-        <v>1.009592</v>
+        <v>0.995867728876934</v>
       </c>
       <c r="J10">
-        <v>0.9835400000000006</v>
+        <v>0.9923383171122281</v>
       </c>
       <c r="K10">
-        <v>1.005628</v>
+        <v>0.9982352941176471</v>
       </c>
       <c r="L10">
-        <v>0.9660279999999996</v>
+        <v>0.9805882352941176</v>
       </c>
       <c r="M10">
-        <v>1.000415999999999</v>
+        <v>1.010501375714796</v>
       </c>
       <c r="N10">
-        <v>0.9863539999999992</v>
+        <v>0.9913506321499451</v>
       </c>
       <c r="O10">
-        <v>0.9883299999999995</v>
+        <v>0.9952777905955785</v>
       </c>
       <c r="P10">
-        <v>0.9897634999999997</v>
+        <v>0.9935175922229051</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.009141297048027</v>
       </c>
       <c r="D11">
-        <v>0.9438874999999985</v>
+        <v>0.962236934594794</v>
       </c>
       <c r="E11">
-        <v>1.02</v>
+        <v>1.003775096615783</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>0.9863061149377539</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.009141297048027</v>
       </c>
       <c r="H11">
-        <v>0.9438874999999985</v>
+        <v>0.962236934594794</v>
       </c>
       <c r="I11">
-        <v>1.02</v>
+        <v>1.004338935143897</v>
       </c>
       <c r="J11">
-        <v>0.98</v>
+        <v>0.9863787482844377</v>
       </c>
       <c r="K11">
-        <v>1.01</v>
+        <v>1.00305669878758</v>
       </c>
       <c r="L11">
-        <v>0.9520750000000017</v>
+        <v>0.9749059388749645</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>1.009141297048027</v>
       </c>
       <c r="N11">
-        <v>0.9819437499999992</v>
+        <v>0.9830060156052882</v>
       </c>
       <c r="O11">
-        <v>0.9834718749999996</v>
+        <v>0.9903648607990895</v>
       </c>
       <c r="P11">
-        <v>0.9869953124999999</v>
+        <v>0.9912674705359046</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9973799755776024</v>
+        <v>1.008969542755898</v>
       </c>
       <c r="D12">
-        <v>0.9640421148671958</v>
+        <v>0.9623477900679072</v>
       </c>
       <c r="E12">
-        <v>1.008466805555199</v>
+        <v>1.003724105759154</v>
       </c>
       <c r="F12">
-        <v>0.9801391959040007</v>
+        <v>0.9863474077727332</v>
       </c>
       <c r="G12">
-        <v>0.9973799755776024</v>
+        <v>1.008969542755898</v>
       </c>
       <c r="H12">
-        <v>0.9640421148671958</v>
+        <v>0.9623477900679072</v>
       </c>
       <c r="I12">
-        <v>1.008646414131197</v>
+        <v>1.004295705195686</v>
       </c>
       <c r="J12">
-        <v>0.9852232388608003</v>
+        <v>0.986396280864007</v>
       </c>
       <c r="K12">
-        <v>1.002462425088002</v>
+        <v>1.00303111124825</v>
       </c>
       <c r="L12">
-        <v>0.9696016136192026</v>
+        <v>0.9750183032758598</v>
       </c>
       <c r="M12">
-        <v>0.9973799755776024</v>
+        <v>1.008969542755898</v>
       </c>
       <c r="N12">
-        <v>0.9862544602111973</v>
+        <v>0.9830359479135306</v>
       </c>
       <c r="O12">
-        <v>0.9875070229759995</v>
+        <v>0.9903472115889231</v>
       </c>
       <c r="P12">
-        <v>0.9894952229503999</v>
+        <v>0.9912662808674368</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9926564473382259</v>
+        <v>1.009123139392663</v>
       </c>
       <c r="D13">
-        <v>0.9925726426016895</v>
+        <v>0.9622327267136841</v>
       </c>
       <c r="E13">
-        <v>0.9919755244143033</v>
+        <v>1.003756588104599</v>
       </c>
       <c r="F13">
-        <v>0.992528936875294</v>
+        <v>0.9863395991945588</v>
       </c>
       <c r="G13">
-        <v>0.9926564473382259</v>
+        <v>1.009123139392663</v>
       </c>
       <c r="H13">
-        <v>0.9925726426016895</v>
+        <v>0.9622327267136841</v>
       </c>
       <c r="I13">
-        <v>0.9926475533560726</v>
+        <v>1.004328664447375</v>
       </c>
       <c r="J13">
-        <v>0.9923321043988091</v>
+        <v>0.9863840726755867</v>
       </c>
       <c r="K13">
-        <v>0.9926535869352376</v>
+        <v>1.003044740783079</v>
       </c>
       <c r="L13">
-        <v>0.9923073296038305</v>
+        <v>0.9749474487110216</v>
       </c>
       <c r="M13">
-        <v>0.9926564473382259</v>
+        <v>1.009123139392663</v>
       </c>
       <c r="N13">
-        <v>0.9922740835079964</v>
+        <v>0.9829946574091415</v>
       </c>
       <c r="O13">
-        <v>0.9924333878073781</v>
+        <v>0.9903630133513761</v>
       </c>
       <c r="P13">
-        <v>0.9924592656904327</v>
+        <v>0.9912696225028208</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9921897788832952</v>
+        <v>1.000415999999999</v>
       </c>
       <c r="D14">
-        <v>0.9928849056754979</v>
+        <v>0.9612399999999994</v>
       </c>
       <c r="E14">
-        <v>0.9905216880934852</v>
+        <v>1.011467999999999</v>
       </c>
       <c r="F14">
-        <v>0.9925158965746071</v>
+        <v>0.9801960000000012</v>
       </c>
       <c r="G14">
-        <v>0.9921897788832952</v>
+        <v>1.000415999999999</v>
       </c>
       <c r="H14">
-        <v>0.9928849056754979</v>
+        <v>0.9612399999999994</v>
       </c>
       <c r="I14">
-        <v>0.9939433958500613</v>
+        <v>1.009592</v>
       </c>
       <c r="J14">
-        <v>0.9930541355605793</v>
+        <v>0.9835400000000006</v>
       </c>
       <c r="K14">
-        <v>0.9910340834547853</v>
+        <v>1.005628</v>
       </c>
       <c r="L14">
-        <v>0.99345164867309</v>
+        <v>0.9660279999999996</v>
       </c>
       <c r="M14">
-        <v>0.9921897788832952</v>
+        <v>1.000415999999999</v>
       </c>
       <c r="N14">
-        <v>0.9917032968844915</v>
+        <v>0.9863539999999992</v>
       </c>
       <c r="O14">
-        <v>0.9920280673067213</v>
+        <v>0.9883299999999995</v>
       </c>
       <c r="P14">
-        <v>0.9924494415956752</v>
+        <v>0.9897634999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.989184923041861</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.9986449157464137</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="E15">
-        <v>0.9908984188236678</v>
+        <v>1.02</v>
       </c>
       <c r="F15">
-        <v>0.9937226641067702</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.989184923041861</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.9986449157464137</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="I15">
-        <v>0.9906355018040066</v>
+        <v>1.02</v>
       </c>
       <c r="J15">
-        <v>0.9936083723699995</v>
+        <v>0.98</v>
       </c>
       <c r="K15">
-        <v>0.9909715415884404</v>
+        <v>1.01</v>
       </c>
       <c r="L15">
-        <v>0.9965045309483396</v>
+        <v>0.9520750000000017</v>
       </c>
       <c r="M15">
-        <v>0.989184923041861</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9947716672850407</v>
+        <v>0.9819437499999992</v>
       </c>
       <c r="O15">
-        <v>0.9931127304296783</v>
+        <v>0.9834718749999996</v>
       </c>
       <c r="P15">
-        <v>0.9930213585536873</v>
+        <v>0.9869953124999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.010501375714796</v>
+        <v>0.9973799755776024</v>
       </c>
       <c r="D16">
-        <v>0.9862014279361111</v>
+        <v>0.9640421148671958</v>
       </c>
       <c r="E16">
-        <v>0.9964998363637791</v>
+        <v>1.008466805555199</v>
       </c>
       <c r="F16">
-        <v>0.9879085223676277</v>
+        <v>0.9801391959040007</v>
       </c>
       <c r="G16">
-        <v>1.010501375714796</v>
+        <v>0.9973799755776024</v>
       </c>
       <c r="H16">
-        <v>0.9862014279361111</v>
+        <v>0.9640421148671958</v>
       </c>
       <c r="I16">
-        <v>0.995867728876934</v>
+        <v>1.008646414131197</v>
       </c>
       <c r="J16">
-        <v>0.9923383171122281</v>
+        <v>0.9852232388608003</v>
       </c>
       <c r="K16">
-        <v>0.9982352941176471</v>
+        <v>1.002462425088002</v>
       </c>
       <c r="L16">
-        <v>0.9805882352941176</v>
+        <v>0.9696016136192026</v>
       </c>
       <c r="M16">
-        <v>1.010501375714796</v>
+        <v>0.9973799755776024</v>
       </c>
       <c r="N16">
-        <v>0.9913506321499451</v>
+        <v>0.9862544602111973</v>
       </c>
       <c r="O16">
-        <v>0.9952777905955785</v>
+        <v>0.9875070229759995</v>
       </c>
       <c r="P16">
-        <v>0.9935175922229051</v>
+        <v>0.9894952229503999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9926564473382259</v>
+      </c>
+      <c r="D17">
+        <v>0.9925726426016895</v>
+      </c>
+      <c r="E17">
+        <v>0.9919755244143033</v>
+      </c>
+      <c r="F17">
+        <v>0.992528936875294</v>
+      </c>
+      <c r="G17">
+        <v>0.9926564473382259</v>
+      </c>
+      <c r="H17">
+        <v>0.9925726426016895</v>
+      </c>
+      <c r="I17">
+        <v>0.9926475533560726</v>
+      </c>
+      <c r="J17">
+        <v>0.9923321043988091</v>
+      </c>
+      <c r="K17">
+        <v>0.9926535869352376</v>
+      </c>
+      <c r="L17">
+        <v>0.9923073296038305</v>
+      </c>
+      <c r="M17">
+        <v>0.9926564473382259</v>
+      </c>
+      <c r="N17">
+        <v>0.9922740835079964</v>
+      </c>
+      <c r="O17">
+        <v>0.9924333878073781</v>
+      </c>
+      <c r="P17">
+        <v>0.9924592656904327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9921897788832952</v>
+      </c>
+      <c r="D18">
+        <v>0.9928849056754979</v>
+      </c>
+      <c r="E18">
+        <v>0.9905216880934852</v>
+      </c>
+      <c r="F18">
+        <v>0.9925158965746071</v>
+      </c>
+      <c r="G18">
+        <v>0.9921897788832952</v>
+      </c>
+      <c r="H18">
+        <v>0.9928849056754979</v>
+      </c>
+      <c r="I18">
+        <v>0.9939433958500613</v>
+      </c>
+      <c r="J18">
+        <v>0.9930541355605793</v>
+      </c>
+      <c r="K18">
+        <v>0.9910340834547853</v>
+      </c>
+      <c r="L18">
+        <v>0.99345164867309</v>
+      </c>
+      <c r="M18">
+        <v>0.9921897788832952</v>
+      </c>
+      <c r="N18">
+        <v>0.9917032968844915</v>
+      </c>
+      <c r="O18">
+        <v>0.9920280673067213</v>
+      </c>
+      <c r="P18">
+        <v>0.9924494415956752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.989184923041861</v>
+      </c>
+      <c r="D19">
+        <v>0.9986449157464137</v>
+      </c>
+      <c r="E19">
+        <v>0.9908984188236678</v>
+      </c>
+      <c r="F19">
+        <v>0.9937226641067702</v>
+      </c>
+      <c r="G19">
+        <v>0.989184923041861</v>
+      </c>
+      <c r="H19">
+        <v>0.9986449157464137</v>
+      </c>
+      <c r="I19">
+        <v>0.9906355018040066</v>
+      </c>
+      <c r="J19">
+        <v>0.9936083723699995</v>
+      </c>
+      <c r="K19">
+        <v>0.9909715415884404</v>
+      </c>
+      <c r="L19">
+        <v>0.9965045309483396</v>
+      </c>
+      <c r="M19">
+        <v>0.989184923041861</v>
+      </c>
+      <c r="N19">
+        <v>0.9947716672850407</v>
+      </c>
+      <c r="O19">
+        <v>0.9931127304296783</v>
+      </c>
+      <c r="P19">
+        <v>0.9930213585536873</v>
       </c>
     </row>
   </sheetData>
